--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp8a-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp8a-Bmpr1a.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3431566666666666</v>
+        <v>0.061724</v>
       </c>
       <c r="H2">
-        <v>1.02947</v>
+        <v>0.185172</v>
       </c>
       <c r="I2">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432048</v>
       </c>
       <c r="J2">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432047</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.750436666666666</v>
+        <v>2.341355666666667</v>
       </c>
       <c r="N2">
-        <v>14.25131</v>
+        <v>7.024067000000001</v>
       </c>
       <c r="O2">
-        <v>0.07745299862590357</v>
+        <v>0.03973512964576821</v>
       </c>
       <c r="P2">
-        <v>0.07745299862590357</v>
+        <v>0.0397351296457682</v>
       </c>
       <c r="Q2">
-        <v>1.630144011744444</v>
+        <v>0.1445178371693333</v>
       </c>
       <c r="R2">
-        <v>14.6712961057</v>
+        <v>1.300660534524</v>
       </c>
       <c r="S2">
-        <v>0.02886115087488094</v>
+        <v>0.003835339100945612</v>
       </c>
       <c r="T2">
-        <v>0.02886115087488094</v>
+        <v>0.003835339100945611</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3431566666666666</v>
+        <v>0.061724</v>
       </c>
       <c r="H3">
-        <v>1.02947</v>
+        <v>0.185172</v>
       </c>
       <c r="I3">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432048</v>
       </c>
       <c r="J3">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432047</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>102.158321</v>
       </c>
       <c r="O3">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="P3">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="Q3">
-        <v>11.68543630220778</v>
+        <v>2.101873401801333</v>
       </c>
       <c r="R3">
-        <v>105.16892671987</v>
+        <v>18.916860616212</v>
       </c>
       <c r="S3">
-        <v>0.2068867153619926</v>
+        <v>0.05578133053375676</v>
       </c>
       <c r="T3">
-        <v>0.2068867153619926</v>
+        <v>0.05578133053375675</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3431566666666666</v>
+        <v>0.061724</v>
       </c>
       <c r="H4">
-        <v>1.02947</v>
+        <v>0.185172</v>
       </c>
       <c r="I4">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432048</v>
       </c>
       <c r="J4">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432047</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>67.58983000000001</v>
       </c>
       <c r="O4">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="P4">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="Q4">
-        <v>7.731300254455555</v>
+        <v>1.390638222306667</v>
       </c>
       <c r="R4">
-        <v>69.5817022901</v>
+        <v>12.51574400076</v>
       </c>
       <c r="S4">
-        <v>0.1368800679542831</v>
+        <v>0.03690595744961811</v>
       </c>
       <c r="T4">
-        <v>0.1368800679542831</v>
+        <v>0.03690595744961811</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.675792</v>
       </c>
       <c r="I5">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273214</v>
       </c>
       <c r="J5">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273215</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.750436666666666</v>
+        <v>2.341355666666667</v>
       </c>
       <c r="N5">
-        <v>14.25131</v>
+        <v>7.024067000000001</v>
       </c>
       <c r="O5">
-        <v>0.07745299862590357</v>
+        <v>0.03973512964576821</v>
       </c>
       <c r="P5">
-        <v>0.07745299862590357</v>
+        <v>0.0397351296457682</v>
       </c>
       <c r="Q5">
-        <v>2.653581254168889</v>
+        <v>1.307875031784889</v>
       </c>
       <c r="R5">
-        <v>23.88223128752</v>
+        <v>11.770875286064</v>
       </c>
       <c r="S5">
-        <v>0.046980762671004</v>
+        <v>0.03470951646389221</v>
       </c>
       <c r="T5">
-        <v>0.046980762671004</v>
+        <v>0.03470951646389221</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.675792</v>
       </c>
       <c r="I6">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273214</v>
       </c>
       <c r="J6">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273215</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>102.158321</v>
       </c>
       <c r="O6">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="P6">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="Q6">
-        <v>19.02178856280356</v>
+        <v>19.02178856280355</v>
       </c>
       <c r="R6">
         <v>171.196097065232</v>
       </c>
       <c r="S6">
-        <v>0.3367743620599962</v>
+        <v>0.5048166432172536</v>
       </c>
       <c r="T6">
-        <v>0.3367743620599962</v>
+        <v>0.5048166432172536</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.675792</v>
       </c>
       <c r="I7">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273214</v>
       </c>
       <c r="J7">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273215</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>67.58983000000001</v>
       </c>
       <c r="O7">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="P7">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="Q7">
         <v>12.58516626615111</v>
@@ -880,10 +880,10 @@
         <v>113.26649639536</v>
       </c>
       <c r="S7">
-        <v>0.2228161314436011</v>
+        <v>0.3339960050461755</v>
       </c>
       <c r="T7">
-        <v>0.2228161314436011</v>
+        <v>0.3339960050461756</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.057467</v>
       </c>
       <c r="I8">
-        <v>0.02080080963424208</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="J8">
-        <v>0.02080080963424209</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.750436666666666</v>
+        <v>2.341355666666667</v>
       </c>
       <c r="N8">
-        <v>14.25131</v>
+        <v>7.024067000000001</v>
       </c>
       <c r="O8">
-        <v>0.07745299862590357</v>
+        <v>0.03973512964576821</v>
       </c>
       <c r="P8">
-        <v>0.07745299862590357</v>
+        <v>0.0397351296457682</v>
       </c>
       <c r="Q8">
-        <v>0.09099778130777776</v>
+        <v>0.04485022869877778</v>
       </c>
       <c r="R8">
-        <v>0.81898003177</v>
+        <v>0.403652058289</v>
       </c>
       <c r="S8">
-        <v>0.001611085080018634</v>
+        <v>0.001190274080930386</v>
       </c>
       <c r="T8">
-        <v>0.001611085080018634</v>
+        <v>0.001190274080930386</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.057467</v>
       </c>
       <c r="I9">
-        <v>0.02080080963424208</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="J9">
-        <v>0.02080080963424209</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>102.158321</v>
       </c>
       <c r="O9">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="P9">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="Q9">
-        <v>0.6523035814341112</v>
+        <v>0.652303581434111</v>
       </c>
       <c r="R9">
-        <v>5.870732232907001</v>
+        <v>5.870732232907</v>
       </c>
       <c r="S9">
-        <v>0.01154881528525127</v>
+        <v>0.01731139546898775</v>
       </c>
       <c r="T9">
-        <v>0.01154881528525127</v>
+        <v>0.01731139546898775</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.057467</v>
       </c>
       <c r="I10">
-        <v>0.02080080963424208</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="J10">
-        <v>0.02080080963424209</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>67.58983000000001</v>
       </c>
       <c r="O10">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="P10">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="Q10">
         <v>0.4315760845122222</v>
@@ -1066,10 +1066,10 @@
         <v>3.88418476061</v>
       </c>
       <c r="S10">
-        <v>0.007640909268972177</v>
+        <v>0.01145353863843996</v>
       </c>
       <c r="T10">
-        <v>0.007640909268972178</v>
+        <v>0.01145353863843996</v>
       </c>
     </row>
   </sheetData>
